--- a/reportsAndLogs/Reports/TestCase_002.xlsx
+++ b/reportsAndLogs/Reports/TestCase_002.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27820"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\b.w.a.t\reportsAndLogs\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maozkuran/b.w.a.t/reportsAndLogs/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -71,9 +77,6 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Verify on entering valid userid and password, the customer can login</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -132,12 +135,15 @@
   </si>
   <si>
     <t>A part of the image should be able to selected</t>
+  </si>
+  <si>
+    <t>Verify that image annot ation is possible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
@@ -229,13 +235,13 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -243,38 +249,38 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -323,20 +329,52 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -351,48 +389,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,25 +717,25 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -737,30 +743,30 @@
       <c r="J1" s="17"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="38"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I2" s="16"/>
+      <c r="J2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -773,11 +779,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -788,7 +794,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -801,32 +807,32 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="36" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -839,32 +845,32 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="8"/>
       <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="17"/>
@@ -873,68 +879,68 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>26</v>
+      <c r="G9" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>27</v>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -947,12 +953,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -964,7 +970,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -977,172 +983,211 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16" t="s">
-        <v>22</v>
+      <c r="E19" s="36"/>
+      <c r="F19" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="29" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16" t="s">
-        <v>22</v>
+      <c r="B20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="29" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16" t="s">
-        <v>22</v>
+      <c r="B21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="29" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16" t="s">
-        <v>22</v>
+      <c r="B22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="29" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1157,45 +1202,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
